--- a/hw11.xlsx
+++ b/hw11.xlsx
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4467AA51-17EE-4E40-B64C-F36363AADBCE}">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -764,11 +764,11 @@
       </c>
       <c r="E2" s="3">
         <f ca="1">NORMSINV(RAND())</f>
-        <v>-0.71194105436148447</v>
+        <v>1.0796720171815128</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">E2^2</f>
-        <v>0.50686006488534219</v>
+        <v>1.165691664684797</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
@@ -777,11 +777,11 @@
       </c>
       <c r="E3" s="3">
         <f t="array" aca="1" ref="E3:E4" ca="1">_xll.MONTE.STDEV(E2)</f>
-        <v>0</v>
+        <v>6.5447781368196366E-3</v>
       </c>
       <c r="F3" s="3">
         <f ca="1">_xll.MONTE.MEAN(F2)</f>
-        <v>0</v>
+        <v>0.99200536920190041</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
@@ -790,11 +790,11 @@
       </c>
       <c r="E4" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>0.99602260126319564</v>
       </c>
       <c r="F4" s="3">
         <f ca="1">SQRT(F3-E3^2)</f>
-        <v>0</v>
+        <v>0.99597315981960088</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
@@ -838,7 +838,7 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <f>_xll.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
@@ -852,11 +852,11 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">E2*SQRT(t)</f>
-        <v>-0.35597052718074224</v>
+        <v>0.53983600859075642</v>
       </c>
       <c r="F12" s="3">
         <f ca="1">-B_t</f>
-        <v>0.35597052718074224</v>
+        <v>-0.53983600859075642</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>13</v>
@@ -868,11 +868,11 @@
       </c>
       <c r="E13" s="3">
         <f ca="1">f*EXP(sigma*B_t - sigma^2*t/2)</f>
-        <v>92.663632395403923</v>
+        <v>110.84550530585562</v>
       </c>
       <c r="F13" s="3">
         <f ca="1">f*EXP(sigma*F12 - sigma^2*t/2)</f>
-        <v>106.84340859038828</v>
+        <v>89.31799544034979</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
@@ -881,15 +881,15 @@
       </c>
       <c r="E14" s="3">
         <f ca="1">MAX(k-F_t,0)</f>
-        <v>7.3363676045960773</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <f ca="1">MAX(k-F13,0)</f>
-        <v>0</v>
+        <v>10.68200455965021</v>
       </c>
       <c r="G14">
         <f ca="1">(E14+F14)/2</f>
-        <v>3.6681838022980386</v>
+        <v>5.3410022798251049</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
@@ -898,15 +898,15 @@
       </c>
       <c r="E15" s="3">
         <f t="array" aca="1" ref="E15:E16" ca="1">_xll.MONTE.STDEV(E14)</f>
-        <v>0</v>
+        <v>3.9386550928844004</v>
       </c>
       <c r="F15" s="3">
         <f t="array" aca="1" ref="F15:F16" ca="1">_xll.MONTE.STDEV(F14)</f>
-        <v>0</v>
+        <v>4.008007498344214</v>
       </c>
       <c r="G15">
         <f t="array" aca="1" ref="G15:G16" ca="1">_xll.MONTE.STDEV(G14)</f>
-        <v>0</v>
+        <v>3.9733312956142823</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
@@ -915,15 +915,15 @@
       </c>
       <c r="E16" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>5.4999725163147648</v>
       </c>
       <c r="F16" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>5.478108110701787</v>
       </c>
       <c r="G16">
         <f ca="1"/>
-        <v>0</v>
+        <v>2.6785097154566855</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.45">
@@ -943,11 +943,11 @@
     <row r="19" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E19" s="3">
         <f ca="1">E14</f>
-        <v>7.3363676045960773</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
         <f ca="1">F14</f>
-        <v>0</v>
+        <v>10.68200455965021</v>
       </c>
       <c r="G19" s="3">
         <f ca="1">X*Y</f>
@@ -955,7 +955,7 @@
       </c>
       <c r="H19" s="3">
         <f ca="1">(X+Y)/2</f>
-        <v>3.6681838022980386</v>
+        <v>5.3410022798251049</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.45">
@@ -964,19 +964,19 @@
       </c>
       <c r="E20" s="3">
         <f t="array" aca="1" ref="E20:E21" ca="1">_xll.MONTE.STDEV(X)</f>
-        <v>0</v>
+        <v>3.9386550928844004</v>
       </c>
       <c r="F20" s="3">
         <f t="array" aca="1" ref="F20:F21" ca="1">_xll.MONTE.STDEV(Y)</f>
-        <v>0</v>
+        <v>4.008007498344214</v>
       </c>
       <c r="G20" s="3">
         <f ca="1">_xll.MONTE.MEAN(XY)</f>
-        <v>0</v>
+        <v>6.8719898449243347E-3</v>
       </c>
       <c r="H20" s="3">
         <f t="array" aca="1" ref="H20:H21" ca="1">_xll.MONTE.STDEV(Z)</f>
-        <v>0</v>
+        <v>3.9725968844592132</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.45">
@@ -985,16 +985,16 @@
       </c>
       <c r="E21" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>5.4999725163147648</v>
       </c>
       <c r="F21" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>5.478108110701787</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
         <f ca="1"/>
-        <v>0</v>
+        <v>2.6776287804125918</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>22</v>
